--- a/data/trans_camb/P0902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 10,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,3</t>
+          <t>-5,51; 3,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 20,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 3,1</t>
+          <t>-7,49; 2,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,18; 13,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,18</t>
+          <t>-5,17; 1,64</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>-14,22%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 167,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 68,33</t>
+          <t>-48,41; 63,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,56; 201,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 33,58</t>
+          <t>-44,17; 30,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,22; 146,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 24,36</t>
+          <t>-39,05; 17,96</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>7,86</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,22</t>
+          <t>2,85; 12,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 13,0</t>
+          <t>3,24; 12,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 11,85</t>
+          <t>4,53; 11,31</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>61,1%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 171,31</t>
+          <t>22,8; 158,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 98,37</t>
+          <t>17,25; 96,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,17; 104,7</t>
+          <t>31,25; 99,27</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 13,37</t>
+          <t>4,6; 13,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 10,42</t>
+          <t>0,38; 10,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,63</t>
+          <t>3,6; 10,46</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>190,68%</t>
+          <t>183,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>86,18%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,84; 409,68</t>
+          <t>61,26; 396,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 111,17</t>
+          <t>2,3; 110,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,6; 158,38</t>
+          <t>36,06; 154,8</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,87</t>
+          <t>17,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>10,17</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,06</t>
+          <t>7,61; 15,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,59</t>
+          <t>9,6; 20,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,72; 21,04</t>
+          <t>12,41; 23,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,62</t>
+          <t>-3,61; 12,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,04</t>
+          <t>11,07; 18,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 16,38</t>
+          <t>4,47; 14,42</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>284,52%</t>
+          <t>306,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>392,88%</t>
+          <t>382,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>111,37%</t>
+          <t>125,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>145,2%</t>
+          <t>162,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>139,01%</t>
+          <t>112,07%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>122,7; 620,18</t>
+          <t>131,73; 620,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>185,06; 837,98</t>
+          <t>181,93; 823,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,04; 187,92</t>
+          <t>68,86; 202,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,26; 135,73</t>
+          <t>-19,65; 98,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,29; 212,58</t>
+          <t>103,79; 239,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>80,88; 215,2</t>
+          <t>47,57; 180,85</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,03</t>
+          <t>-5,15; 4,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 6,04</t>
+          <t>-5,41; 6,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,53</t>
+          <t>-3,44; 3,57</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,29; 91,43</t>
+          <t>-50,91; 94,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 81,59</t>
+          <t>-34,45; 82,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 51,47</t>
+          <t>-28,82; 51,57</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,44</t>
+          <t>-1,45; 7,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,03</t>
+          <t>-6,68; 4,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,26</t>
+          <t>-2,84; 4,12</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 133,02</t>
+          <t>-15,51; 130,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 31,76</t>
+          <t>-33,47; 31,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 40,11</t>
+          <t>-21,16; 38,41</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>3,31</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,48</t>
+          <t>-0,26; 6,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,7</t>
+          <t>-6,05; 9,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,96</t>
+          <t>-2,56; 6,88</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,08; 100,97</t>
+          <t>-3,63; 93,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 79,36</t>
+          <t>-41,19; 70,84</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,32; 79,98</t>
+          <t>-19,11; 64,18</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,91</t>
+          <t>-7,76; 2,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,34</t>
+          <t>0,16; 8,04</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,89</t>
+          <t>-5,22; 3,49</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 45,44</t>
+          <t>-64,92; 24,79</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,36; 58,67</t>
+          <t>1,0; 57,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 40,29</t>
+          <t>-37,21; 27,48</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,16</t>
+          <t>0,83; 5,29</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,47</t>
+          <t>0,17; 5,5</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,97</t>
+          <t>1,46; 4,98</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>57,76%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>34,79; 83,17</t>
+          <t>10,32; 69,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>16,78; 47,11</t>
+          <t>2,18; 40,14</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>28,3; 54,87</t>
+          <t>12,8; 45,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P0902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,17</t>
+          <t>-0,33; 10,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,9</t>
+          <t>-3,29; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 3,8</t>
+          <t>-5,23; 3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 20,93</t>
+          <t>7,31; 21,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 17,77</t>
+          <t>3,83; 17,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,82</t>
+          <t>-7,21; 3,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,33</t>
+          <t>4,9; 13,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,56</t>
+          <t>2,26; 10,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,64</t>
+          <t>-4,97; 1,64</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 167,17</t>
+          <t>-4,49; 163,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 115,31</t>
+          <t>-30,0; 130,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 63,3</t>
+          <t>-49,61; 72,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,56; 201,0</t>
+          <t>40,82; 205,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 175,77</t>
+          <t>19,72; 166,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 30,42</t>
+          <t>-44,37; 32,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,22; 146,28</t>
+          <t>36,39; 148,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 116,27</t>
+          <t>16,19; 120,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 17,96</t>
+          <t>-38,28; 21,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,55</t>
+          <t>-2,45; 5,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,48</t>
+          <t>-4,31; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 12,27</t>
+          <t>3,49; 12,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,75</t>
+          <t>-2,57; 6,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,13</t>
+          <t>-5,72; 3,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 12,7</t>
+          <t>3,6; 12,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,1</t>
+          <t>-1,75; 5,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,94</t>
+          <t>-4,09; 1,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,31</t>
+          <t>4,61; 10,92</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 77,68</t>
+          <t>-22,75; 76,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 33,65</t>
+          <t>-39,92; 38,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 158,7</t>
+          <t>29,17; 176,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 49,24</t>
+          <t>-14,02; 46,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 22,64</t>
+          <t>-30,62; 29,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 96,02</t>
+          <t>19,91; 87,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 44,94</t>
+          <t>-12,45; 43,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 17,18</t>
+          <t>-29,03; 17,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,25; 99,27</t>
+          <t>31,89; 94,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,35</t>
+          <t>2,56; 11,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,77</t>
+          <t>-0,64; 6,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,0</t>
+          <t>4,84; 13,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,45</t>
+          <t>-0,15; 10,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,23</t>
+          <t>-6,3; 3,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 10,34</t>
+          <t>0,86; 10,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,86</t>
+          <t>2,21; 9,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,99</t>
+          <t>-2,28; 4,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,46</t>
+          <t>3,76; 10,25</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,09; 338,56</t>
+          <t>36,97; 373,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 226,35</t>
+          <t>-12,91; 180,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,26; 396,49</t>
+          <t>57,44; 403,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 109,62</t>
+          <t>-1,95; 118,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 42,03</t>
+          <t>-42,65; 39,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 110,98</t>
+          <t>5,63; 112,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 145,1</t>
+          <t>20,84; 141,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 58,4</t>
+          <t>-23,71; 60,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,06; 154,8</t>
+          <t>32,71; 152,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,86</t>
+          <t>7,13; 16,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,36</t>
+          <t>8,82; 17,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,6; 20,18</t>
+          <t>9,2; 19,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 23,66</t>
+          <t>11,34; 23,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 22,36</t>
+          <t>9,83; 21,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 12,3</t>
+          <t>-2,78; 13,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,07; 18,31</t>
+          <t>10,72; 18,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,44; 18,27</t>
+          <t>10,55; 18,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 14,42</t>
+          <t>4,82; 14,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>131,73; 620,87</t>
+          <t>126,21; 647,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>150,54; 711,31</t>
+          <t>159,38; 741,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>181,93; 823,78</t>
+          <t>164,92; 824,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>68,86; 202,94</t>
+          <t>66,24; 200,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,12; 189,48</t>
+          <t>57,06; 186,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 98,59</t>
+          <t>-16,08; 104,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>103,79; 239,01</t>
+          <t>104,12; 242,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>98,68; 239,62</t>
+          <t>98,75; 241,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,57; 180,85</t>
+          <t>48,11; 188,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,45</t>
+          <t>-1,28; 9,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,64</t>
+          <t>-4,56; 5,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,09</t>
+          <t>-5,54; 4,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,93; 22,55</t>
+          <t>7,77; 23,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,59</t>
+          <t>-4,58; 8,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,05</t>
+          <t>-5,3; 5,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,37</t>
+          <t>5,05; 14,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,81</t>
+          <t>-2,61; 5,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,57</t>
+          <t>-3,45; 3,81</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 181,08</t>
+          <t>-16,35; 187,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 112,42</t>
+          <t>-48,17; 130,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 94,2</t>
+          <t>-51,07; 79,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,69; 266,6</t>
+          <t>47,52; 264,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 107,01</t>
+          <t>-31,71; 107,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 82,56</t>
+          <t>-33,09; 67,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,72; 196,48</t>
+          <t>42,95; 209,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 82,29</t>
+          <t>-23,22; 77,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 51,57</t>
+          <t>-29,52; 56,17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 10,14</t>
+          <t>-0,41; 9,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,61</t>
+          <t>0,54; 11,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,26</t>
+          <t>-1,4; 7,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 6,44</t>
+          <t>-5,9; 6,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,39</t>
+          <t>-2,68; 11,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 4,06</t>
+          <t>-6,42; 4,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,35</t>
+          <t>-1,66; 6,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,66</t>
+          <t>1,43; 10,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 4,12</t>
+          <t>-2,77; 4,21</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 167,63</t>
+          <t>-7,6; 157,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,51; 196,83</t>
+          <t>2,36; 190,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 130,76</t>
+          <t>-13,72; 129,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 50,45</t>
+          <t>-30,86; 53,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 85,43</t>
+          <t>-13,38; 83,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 31,75</t>
+          <t>-32,55; 34,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 59,15</t>
+          <t>-12,07; 64,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,35; 91,78</t>
+          <t>7,93; 90,74</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 38,41</t>
+          <t>-18,94; 40,21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,1</t>
+          <t>-4,97; 1,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,64</t>
+          <t>-4,11; 2,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,98</t>
+          <t>-0,46; 6,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,24</t>
+          <t>-2,24; 5,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,38</t>
+          <t>1,79; 9,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 9,25</t>
+          <t>-5,89; 9,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,27</t>
+          <t>-2,64; 2,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,36</t>
+          <t>-0,03; 5,41</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,88</t>
+          <t>-2,9; 6,61</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 14,89</t>
+          <t>-46,33; 14,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 34,83</t>
+          <t>-36,62; 34,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 93,69</t>
+          <t>-4,23; 91,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 44,08</t>
+          <t>-14,6; 46,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,76; 79,57</t>
+          <t>11,92; 85,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 70,84</t>
+          <t>-37,99; 71,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 22,81</t>
+          <t>-20,77; 26,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 54,19</t>
+          <t>-0,78; 52,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 64,18</t>
+          <t>-21,58; 60,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,58</t>
+          <t>-2,74; 3,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -1,32</t>
+          <t>-7,05; -1,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 2,39</t>
+          <t>-7,76; 2,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,53</t>
+          <t>-3,01; 4,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -0,01</t>
+          <t>-7,74; -0,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,04</t>
+          <t>-0,21; 7,51</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,0</t>
+          <t>-1,77; 3,39</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,41; -1,6</t>
+          <t>-6,32; -1,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,49</t>
+          <t>-5,45; 3,43</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 41,77</t>
+          <t>-24,11; 39,95</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -16,23</t>
+          <t>-59,95; -19,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-64,92; 24,79</t>
+          <t>-63,82; 25,46</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 30,64</t>
+          <t>-16,41; 29,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-40,74; -0,12</t>
+          <t>-42,14; -0,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,0; 57,77</t>
+          <t>-1,39; 53,25</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 24,65</t>
+          <t>-12,41; 28,2</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -11,63</t>
+          <t>-42,33; -12,53</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 27,48</t>
+          <t>-39,08; 26,35</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>1,47; 4,35</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-0,28; 2,43</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,29</t>
+          <t>1,2; 5,4</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>3,68; 7,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>1,43; 4,93</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,5</t>
+          <t>0,03; 5,58</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>2,97; 5,33</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>0,93; 3,26</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,98</t>
+          <t>1,62; 5,05</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>15,92; 55,59</t>
+          <t>16,59; 58,76</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 31,85</t>
+          <t>-3,37; 32,78</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>10,32; 69,38</t>
+          <t>15,05; 71,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,89; 51,02</t>
+          <t>23,56; 52,01</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7,98; 36,11</t>
+          <t>9,47; 35,94</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,18; 40,14</t>
+          <t>0,66; 39,64</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,43</t>
+          <t>24,65; 48,13</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,45</t>
+          <t>7,96; 30,04</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>12,8; 45,81</t>
+          <t>13,69; 45,96</t>
         </is>
       </c>
     </row>
